--- a/data/trans_dic/P25_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,62%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>25,99%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,62%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>25,13%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,79%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>18,38%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,64</t>
+          <t>2,74; 10,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,13</t>
+          <t>4,24; 14,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 13,06</t>
+          <t>2,84; 13,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 19,62</t>
+          <t>7,0; 21,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 22,69</t>
+          <t>6,23; 18,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 23,11</t>
+          <t>4,43; 16,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 25,89</t>
+          <t>10,42; 23,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 34,85</t>
+          <t>9,34; 21,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 14,64</t>
+          <t>11,04; 24,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,87</t>
+          <t>9,85; 23,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,57</t>
+          <t>17,86; 34,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 23,57</t>
+          <t>18,06; 33,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 14,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 15,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 15,98</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>10,45; 19,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 24,0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 21,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>18,09%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>27,86%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>25,65%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>23,35%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 15,42</t>
+          <t>6,3; 15,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 16,59</t>
+          <t>6,97; 15,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 26,69</t>
+          <t>10,95; 25,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 25,76</t>
+          <t>14,26; 35,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 34,35</t>
+          <t>11,89; 26,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 22,6</t>
+          <t>10,55; 25,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 29,98</t>
+          <t>20,9; 33,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 33,46</t>
+          <t>12,19; 21,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 23,31</t>
+          <t>18,62; 30,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 17,95</t>
+          <t>18,28; 31,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,23</t>
+          <t>19,95; 34,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 27,28</t>
+          <t>19,38; 32,4</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 22,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,64; 17,31</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 25,79</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 30,83</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 27,23</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 25,87</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>28,27%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>21,22%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>19,45%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,24%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>39,21%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 26,04</t>
+          <t>10,34; 18,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,72</t>
+          <t>10,29; 21,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,42; 17,51</t>
+          <t>9,21; 17,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 25,64</t>
+          <t>12,84; 25,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,21; 32,14</t>
+          <t>13,72; 26,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 29,45</t>
+          <t>11,0; 22,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,11; 28,2</t>
+          <t>20,48; 30,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 34,32</t>
+          <t>20,9; 29,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 27,85</t>
+          <t>19,55; 27,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,25; 23,02</t>
+          <t>26,55; 37,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,34; 21,28</t>
+          <t>22,78; 34,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,69</t>
+          <t>32,13; 45,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 23,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,57; 23,31</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 21,37</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>20,94; 28,79</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 27,85</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>22,69; 32,13</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>26,15%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35,84%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>35,83%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>35,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>33,54%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>36,6%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,63%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>39,99%</t>
+          <t>46,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33,77%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>40,0%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37,95%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,45; 27,05</t>
+          <t>15,84; 27,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 27,43</t>
+          <t>17,24; 27,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,44; 32,46</t>
+          <t>21,1; 33,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,26; 43,46</t>
+          <t>20,17; 33,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,35; 40,8</t>
+          <t>27,97; 42,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 38,38</t>
+          <t>23,65; 37,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,3; 41,41</t>
+          <t>30,56; 41,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,13; 51,27</t>
+          <t>29,44; 39,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 32,5</t>
+          <t>32,55; 41,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,32; 31,45</t>
+          <t>35,7; 47,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,59; 35,17</t>
+          <t>38,14; 51,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 45,55</t>
+          <t>40,57; 53,62</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 32,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 32,15</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>28,1; 35,56</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>30,0; 38,5</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>34,88; 45,09</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>33,68; 43,04</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>51,65%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>33,82%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>33,28%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>37,73%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>51,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>34,45%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>33,6%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>45,22%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>44,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,09; 32,24</t>
+          <t>20,44; 32,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,82; 32,33</t>
+          <t>21,68; 32,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 37,57</t>
+          <t>26,22; 38,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,93; 45,68</t>
+          <t>22,59; 36,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,41; 48,66</t>
+          <t>30,51; 45,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>34,29; 46,15</t>
+          <t>31,48; 45,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,91; 49,25</t>
+          <t>36,04; 49,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,94; 58,15</t>
+          <t>34,18; 46,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,9; 38,25</t>
+          <t>36,94; 49,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,15; 37,51</t>
+          <t>41,97; 57,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,42; 42,49</t>
+          <t>45,28; 58,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>40,51; 50,63</t>
+          <t>44,0; 57,46</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>29,99; 38,92</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 38,1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>33,75; 42,42</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>34,0; 44,06</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>40,1; 50,16</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>39,77; 49,73</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>29,92%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>28,04%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>53,13%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>50,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>50,29%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>41,69%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36,67%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>38,37%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>39,95%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>41,1%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 37,15</t>
+          <t>21,41; 36,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 30,36</t>
+          <t>16,63; 30,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,17; 45,28</t>
+          <t>28,0; 44,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,75; 36,69</t>
+          <t>21,75; 37,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,63; 60,05</t>
+          <t>20,98; 35,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>39,88; 53,07</t>
+          <t>21,08; 36,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,84; 55,26</t>
+          <t>44,79; 59,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,02; 58,17</t>
+          <t>40,49; 53,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,37; 47,9</t>
+          <t>43,52; 56,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,25; 41,24</t>
+          <t>35,69; 53,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,75; 49,21</t>
+          <t>38,73; 58,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,92; 46,4</t>
+          <t>41,31; 58,55</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>36,35; 47,41</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 41,6</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 49,51</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>32,38; 45,09</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>33,58; 46,35</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>35,05; 46,5</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>25,39%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>34,3%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>30,41%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32,91%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>38,54%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>26,23%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>23,91%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>27,13%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>26,02%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>31,97%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,5</t>
+          <t>15,27; 20,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,4; 19,83</t>
+          <t>15,24; 19,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,04; 24,1</t>
+          <t>19,05; 23,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,52; 28,31</t>
+          <t>20,32; 26,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,49; 37,04</t>
+          <t>22,66; 28,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,92; 32,46</t>
+          <t>20,37; 25,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,25; 34,99</t>
+          <t>31,57; 37,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,36; 41,87</t>
+          <t>28,15; 32,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,3; 28,09</t>
+          <t>30,63; 35,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,12; 25,59</t>
+          <t>32,65; 38,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,33; 28,87</t>
+          <t>35,67; 41,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,87; 34,29</t>
+          <t>37,68; 44,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,36; 27,98</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>22,38; 25,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>25,7; 29,31</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>27,33; 31,5</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>29,61; 34,09</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29,79; 34,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28617</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44195</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33817</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62044</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75695</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>72527</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81462</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>74451</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9689</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>104312</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>116722</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>115278</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>136494</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>13695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13664; 52619</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22234; 73525</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14409; 67279</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32961; 99736</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2621; 7833</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1950; 7345</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48838; 108360</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48094; 109306</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56753; 125510</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47015; 110626</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6678; 12739</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6963; 12871</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>73236; 143940</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>84200; 158890</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>79788; 163139</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>99061; 188177</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>10765; 19077</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10221; 17644</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58301</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>61256</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>99704</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>127958</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9023</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7970</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>141869</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>85810</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>123824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>124717</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12146</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11743</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>200170</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>147066</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>223528</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>252675</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>21169</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>19713</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35849; 90813</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39179; 89647</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64805; 151664</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82304; 203989</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5929; 13187</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5169; 12591</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>107904; 174985</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>61947; 111247</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>95914; 154893</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>92348; 160846</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9322; 16119</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8872; 14832</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>158333; 246000</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>113859; 185312</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>178820; 285466</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>195132; 333680</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16897; 26305</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>15446; 24525</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>96516</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>97421</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>87796</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>121731</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11711</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10075</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>182303</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>178844</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>165906</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>226389</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21508</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>278818</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>276265</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>253702</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>348120</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>26896</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>31583</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70989; 129026</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70048; 145661</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62604; 116170</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>87141; 170332</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8259; 15680</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6687; 13901</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>145880; 218275</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>149775; 213293</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>138785; 196393</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>190492; 267289</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12235; 18344</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17623; 25194</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>233944; 333866</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>231596; 325755</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>212555; 297034</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>292319; 402025</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>22520; 31724</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>26236; 37148</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>134373</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>138837</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>165467</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>171584</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20883</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16864</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>244209</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>230796</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>242220</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>273429</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23298</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24982</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>378582</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>369633</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>407687</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>445013</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>44181</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>41846</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>102514; 180012</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111019; 178377</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>134352; 212661</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>132358; 222851</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16299; 24900</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13468; 21120</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>208296; 283066</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>198250; 269225</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>213612; 274436</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>236120; 314692</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19907; 26866</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21621; 28575</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>330272; 434971</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>326351; 423472</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>363332; 459800</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>395240; 507266</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>38526; 49810</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>37136; 47451</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>129746</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>136493</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>159529</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>142098</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16982</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17370</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>214772</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>201870</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>223060</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>252988</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25191</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>23986</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>344518</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>338363</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>382589</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>395086</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>42174</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>41356</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>101232; 161588</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>109252; 163259</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>129402; 188761</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>111832; 179886</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13574; 20254</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14201; 20726</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>181895; 249962</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>171959; 232622</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>190274; 255151</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>216975; 294944</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22083; 28286</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20614; 26920</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>299929; 389153</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>300021; 383636</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>340400; 427884</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>344026; 445872</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>37395; 46777</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>36573; 45730</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>152873</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>120757</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>189229</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>169455</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12990</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>373606</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>328129</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>349082</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>329695</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31039</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>32021</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>526479</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>448886</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>538310</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>499149</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>44173</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>45011</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>116712; 196484</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>88012; 160929</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>149089; 238115</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>123192; 213339</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9828; 16713</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9662; 16758</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>321480; 424667</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>281315; 374995</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>301448; 394247</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>262148; 396249</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24678; 36991</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26305; 37281</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>459040; 598809</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>392266; 509240</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>476564; 606572</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>421267; 586641</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>37131; 51242</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>38387; 50924</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>456.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>755.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>848.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>662.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>698.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>600426</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>598959</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>735541</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>794870</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>76622</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>69275</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1232453</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1097976</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1185552</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1281668</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>116580</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>123929</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1832879</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1696935</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1921093</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2076538</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>193202</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>193204</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>525543; 688833</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>524931; 681907</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>655604; 824961</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>699876; 921870</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>68376; 85548</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>61482; 78323</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1136981; 1333595</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1016463; 1185950</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1103500; 1281421</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1179658; 1398349</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>107896; 126281</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>114172; 133676</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1715988; 1970531</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1579027; 1826175</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1810329; 2064534</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1928547; 2223351</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>178901; 205975</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>180181; 206290</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
